--- a/static/api文档/menu.xlsx
+++ b/static/api文档/menu.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\hengyi\单锭数据流\mes\static\api文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2560ACE6-6F46-43D0-9AD3-C677010A7E53}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{FF87819A-EEA3-47A6-ABDF-949FB28BAA3E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>/measurement/artificial</t>
   </si>
@@ -197,12 +191,56 @@
   <si>
     <t>盘点SAP</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户维护</t>
+  </si>
+  <si>
+    <t>用户维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/permissions</t>
+  </si>
+  <si>
+    <t>el-icon-document</t>
+  </si>
+  <si>
+    <t>el-icon-view</t>
+  </si>
+  <si>
+    <t>el-icon-refresh</t>
+  </si>
+  <si>
+    <t>el-icon-edit-outline</t>
+  </si>
+  <si>
+    <t>el-icon-goods</t>
+  </si>
+  <si>
+    <t>el-icon-setting</t>
+  </si>
+  <si>
+    <t>el-icon-search</t>
+  </si>
+  <si>
+    <t>el-icon-tickets</t>
+  </si>
+  <si>
+    <t>el-icon-printer</t>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-edit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,7 +270,6 @@
       <family val="3"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="仿宋"/>
       <family val="3"/>
@@ -261,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,6 +306,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -337,7 +380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -389,7 +432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -583,244 +626,330 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DBCB1C-3BA7-4341-AF97-E83BBD72ECC8}">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="43.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="C12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="C17" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="C18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="C19" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="C20" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="C21" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="C23" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="C24" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="C25" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="C26" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
